--- a/mydir/yearly_data.xlsx
+++ b/mydir/yearly_data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18067"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="1" activeTab="6"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="1" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="მონაცემები" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="73">
   <si>
     <t>RegionName</t>
   </si>
@@ -258,47 +258,6 @@
   </si>
   <si>
     <t>year</t>
-  </si>
-  <si>
-    <t xml:space="preserve">აჭარის არ_x000D_
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">გურია_x000D_
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">იმერეთი_x000D_
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">კახეთი_x000D_
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">მცხეთა-მთიანეთი_x000D_
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">რაჭა-ლეჩხუმი და ქვემო სვანეთი_x000D_
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">სამეგრელო-ზემო _x000D_
-სვანეთი_x000D_
- </t>
-  </si>
-  <si>
-    <t xml:space="preserve">სამცხე-ჯავახეთი_x000D_
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ქვემო ქართლი_x000D_
- </t>
-  </si>
-  <si>
-    <t xml:space="preserve">შიდა ქართლი_x000D_
-</t>
   </si>
 </sst>
 </file>
@@ -465,7 +424,7 @@
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -502,14 +461,8 @@
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="7">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -555,26 +508,6 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="thin">
         <color indexed="64"/>
@@ -589,7 +522,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="67">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
@@ -664,12 +597,6 @@
     <xf numFmtId="168" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="3" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
@@ -709,19 +636,19 @@
     <xf numFmtId="169" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="169" fontId="19" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="19" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="169" fontId="17" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="17" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="169" fontId="11" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="11" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="169" fontId="11" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="11" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="18" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="18" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -733,6 +660,9 @@
     </xf>
     <xf numFmtId="165" fontId="23" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="9" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="167" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -741,9 +671,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -798,22 +725,123 @@
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
-      <sheetName val="მონაცემები"/>
-      <sheetName val="პრიორიტეტები"/>
-      <sheetName val="production"/>
-      <sheetName val="employment"/>
-      <sheetName val="salary"/>
-      <sheetName val="selfemployment"/>
-      <sheetName val="employ"/>
+      <sheetName val="data"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-      <sheetData sheetId="1" refreshError="1"/>
-      <sheetData sheetId="2" refreshError="1"/>
-      <sheetData sheetId="3" refreshError="1"/>
-      <sheetData sheetId="4" refreshError="1"/>
-      <sheetData sheetId="5" refreshError="1"/>
-      <sheetData sheetId="6" refreshError="1"/>
+      <sheetData sheetId="0">
+        <row r="1">
+          <cell r="A1" t="str">
+            <v>RegionNameGeo</v>
+          </cell>
+          <cell r="B1" t="str">
+            <v>hc_key</v>
+          </cell>
+        </row>
+        <row r="2">
+          <cell r="A2" t="str">
+            <v>აფხაზეთი</v>
+          </cell>
+          <cell r="B2" t="str">
+            <v>ge-ab</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="A3" t="str">
+            <v>აჭარა</v>
+          </cell>
+          <cell r="B3" t="str">
+            <v>ge-aj</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="A4" t="str">
+            <v>გურია</v>
+          </cell>
+          <cell r="B4" t="str">
+            <v>ge-gu</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="A5" t="str">
+            <v>თბილისი</v>
+          </cell>
+          <cell r="B5" t="str">
+            <v>ge-sz</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="A6" t="str">
+            <v>იმერეთი</v>
+          </cell>
+          <cell r="B6" t="str">
+            <v>ge-im</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="A7" t="str">
+            <v>კახეთი</v>
+          </cell>
+          <cell r="B7" t="str">
+            <v>ge-ka</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="A8" t="str">
+            <v>მცხეთა-მთიანეთი</v>
+          </cell>
+          <cell r="B8" t="str">
+            <v>ge-mm</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="A9" t="str">
+            <v>რაჭა-ლეჩხუმი-ქვემო სვანეთი</v>
+          </cell>
+          <cell r="B9" t="str">
+            <v>ge-rk</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="A10" t="str">
+            <v>სამეგრელო-ზემო სვანეთი</v>
+          </cell>
+          <cell r="B10" t="str">
+            <v>ge-sz</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="A11" t="str">
+            <v>სამცხე-ჯავახეთი</v>
+          </cell>
+          <cell r="B11" t="str">
+            <v>ge-sj</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="A12" t="str">
+            <v>ქვემო ქართლი</v>
+          </cell>
+          <cell r="B12" t="str">
+            <v>ge-kk</v>
+          </cell>
+        </row>
+        <row r="13">
+          <cell r="A13" t="str">
+            <v>შიდა ქართლი</v>
+          </cell>
+          <cell r="B13" t="str">
+            <v>ge-sd</v>
+          </cell>
+        </row>
+        <row r="14">
+          <cell r="A14" t="str">
+            <v>RegionNameGeo</v>
+          </cell>
+          <cell r="B14" t="str">
+            <v>additional</v>
+          </cell>
+        </row>
+      </sheetData>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1774,10 +1802,10 @@
     </row>
     <row r="17" spans="11:13" ht="106.5" customHeight="1">
       <c r="K17" s="16"/>
-      <c r="L17" s="63" t="s">
+      <c r="L17" s="62" t="s">
         <v>67</v>
       </c>
-      <c r="M17" s="64"/>
+      <c r="M17" s="63"/>
     </row>
     <row r="18" spans="11:13">
       <c r="K18" s="16"/>
@@ -1839,7 +1867,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="65" t="s">
+      <c r="A1" s="64" t="s">
         <v>52</v>
       </c>
       <c r="B1" s="15" t="s">
@@ -1847,43 +1875,43 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="65"/>
+      <c r="A2" s="64"/>
       <c r="B2" s="15" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="65"/>
+      <c r="A3" s="64"/>
       <c r="B3" s="15" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="65"/>
+      <c r="A4" s="64"/>
       <c r="B4" s="21" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="65"/>
+      <c r="A5" s="64"/>
       <c r="B5" s="21" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="65"/>
+      <c r="A6" s="64"/>
       <c r="B6" s="15" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="65"/>
+      <c r="A7" s="64"/>
       <c r="B7" s="20" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="65"/>
+      <c r="A8" s="64"/>
       <c r="B8" s="15" t="s">
         <v>59</v>
       </c>
@@ -1916,7 +1944,7 @@
   <dimension ref="A1:M13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1925,92 +1953,92 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="48">
-      <c r="A1" s="58"/>
-      <c r="B1" s="59" t="s">
+      <c r="A1" s="56"/>
+      <c r="B1" s="57" t="s">
         <v>19</v>
       </c>
-      <c r="C1" s="59" t="s">
+      <c r="C1" s="57" t="s">
         <v>13</v>
       </c>
-      <c r="D1" s="59" t="s">
+      <c r="D1" s="57" t="s">
         <v>37</v>
       </c>
-      <c r="E1" s="59" t="s">
+      <c r="E1" s="57" t="s">
         <v>34</v>
       </c>
-      <c r="F1" s="59" t="s">
+      <c r="F1" s="57" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="59" t="s">
+      <c r="G1" s="57" t="s">
         <v>28</v>
       </c>
-      <c r="H1" s="59" t="s">
+      <c r="H1" s="57" t="s">
         <v>16</v>
       </c>
-      <c r="I1" s="59" t="s">
+      <c r="I1" s="57" t="s">
         <v>25</v>
       </c>
       <c r="J1" t="s">
         <v>31</v>
       </c>
-      <c r="K1" s="59" t="s">
+      <c r="K1" s="57" t="s">
         <v>10</v>
       </c>
       <c r="L1" t="s">
         <v>22</v>
       </c>
-      <c r="M1" s="59"/>
+      <c r="M1" s="57"/>
     </row>
     <row r="2" spans="1:13">
-      <c r="A2" s="58"/>
-      <c r="B2" s="59" t="e">
-        <f>VLOOKUP(B1,#REF!, 2, FALSE)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="C2" s="59" t="e">
-        <f>VLOOKUP(C1,#REF!, 2, FALSE)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="D2" s="59" t="e">
-        <f>VLOOKUP(D1,#REF!, 2, FALSE)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="E2" s="59" t="e">
-        <f>VLOOKUP(E1,#REF!, 2, FALSE)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="F2" s="59" t="e">
-        <f>VLOOKUP(F1,#REF!, 2, FALSE)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="G2" s="59" t="e">
-        <f>VLOOKUP(G1,#REF!, 2, FALSE)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="H2" s="59" t="e">
-        <f>VLOOKUP(H1,#REF!, 2, FALSE)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="I2" s="59" t="e">
-        <f>VLOOKUP(I1,#REF!, 2, FALSE)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="J2" s="59" t="e">
-        <f>VLOOKUP(J1,#REF!, 2, FALSE)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="K2" s="59" t="e">
-        <f>VLOOKUP(K1,#REF!, 2, FALSE)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="L2" s="59" t="e">
-        <f>VLOOKUP(L1,#REF!, 2, FALSE)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="M2" s="59"/>
+      <c r="A2" s="56"/>
+      <c r="B2" s="57" t="str">
+        <f>VLOOKUP(B1, [1]data!$A:$B, 2, FALSE)</f>
+        <v>ge-ka</v>
+      </c>
+      <c r="C2" s="57" t="str">
+        <f>VLOOKUP(C1, [1]data!$A:$B, 2, FALSE)</f>
+        <v>ge-sz</v>
+      </c>
+      <c r="D2" s="57" t="str">
+        <f>VLOOKUP(D1, [1]data!$A:$B, 2, FALSE)</f>
+        <v>ge-sd</v>
+      </c>
+      <c r="E2" s="57" t="str">
+        <f>VLOOKUP(E1, [1]data!$A:$B, 2, FALSE)</f>
+        <v>ge-kk</v>
+      </c>
+      <c r="F2" s="57" t="str">
+        <f>VLOOKUP(F1, [1]data!$A:$B, 2, FALSE)</f>
+        <v>ge-aj</v>
+      </c>
+      <c r="G2" s="57" t="str">
+        <f>VLOOKUP(G1, [1]data!$A:$B, 2, FALSE)</f>
+        <v>ge-sz</v>
+      </c>
+      <c r="H2" s="57" t="str">
+        <f>VLOOKUP(H1, [1]data!$A:$B, 2, FALSE)</f>
+        <v>ge-im</v>
+      </c>
+      <c r="I2" s="57" t="str">
+        <f>VLOOKUP(I1, [1]data!$A:$B, 2, FALSE)</f>
+        <v>ge-rk</v>
+      </c>
+      <c r="J2" s="57" t="str">
+        <f>VLOOKUP(J1, [1]data!$A:$B, 2, FALSE)</f>
+        <v>ge-sj</v>
+      </c>
+      <c r="K2" s="57" t="str">
+        <f>VLOOKUP(K1, [1]data!$A:$B, 2, FALSE)</f>
+        <v>ge-gu</v>
+      </c>
+      <c r="L2" s="57" t="str">
+        <f>VLOOKUP(L1, [1]data!$A:$B, 2, FALSE)</f>
+        <v>ge-mm</v>
+      </c>
+      <c r="M2" s="57"/>
     </row>
     <row r="3" spans="1:13">
-      <c r="A3" s="60">
+      <c r="A3" s="58">
         <v>2006</v>
       </c>
       <c r="B3" s="27">
@@ -2049,31 +2077,31 @@
       <c r="M3" s="27"/>
     </row>
     <row r="4" spans="1:13">
-      <c r="A4" s="60">
+      <c r="A4" s="58">
         <v>2007</v>
       </c>
-      <c r="B4" s="62">
+      <c r="B4" s="60">
         <v>68.732335684638215</v>
       </c>
-      <c r="C4" s="62">
+      <c r="C4" s="60">
         <v>39.843056803586904</v>
       </c>
-      <c r="D4" s="62">
+      <c r="D4" s="60">
         <v>56.964284459804645</v>
       </c>
-      <c r="E4" s="62">
+      <c r="E4" s="60">
         <v>63.909263932425439</v>
       </c>
-      <c r="F4" s="62">
+      <c r="F4" s="60">
         <v>36.414618052945947</v>
       </c>
-      <c r="G4" s="62">
+      <c r="G4" s="60">
         <v>63.946257616205365</v>
       </c>
-      <c r="H4" s="62">
+      <c r="H4" s="60">
         <v>61.94890573458914</v>
       </c>
-      <c r="I4" s="62">
+      <c r="I4" s="60">
         <v>61.94890573458914</v>
       </c>
       <c r="J4" s="27">
@@ -2088,7 +2116,7 @@
       <c r="M4" s="27"/>
     </row>
     <row r="5" spans="1:13">
-      <c r="A5" s="60">
+      <c r="A5" s="58">
         <v>2008</v>
       </c>
       <c r="B5" s="25">
@@ -2127,7 +2155,7 @@
       <c r="M5" s="27"/>
     </row>
     <row r="6" spans="1:13">
-      <c r="A6" s="60">
+      <c r="A6" s="58">
         <v>2009</v>
       </c>
       <c r="B6" s="25">
@@ -2166,7 +2194,7 @@
       <c r="M6" s="27"/>
     </row>
     <row r="7" spans="1:13">
-      <c r="A7" s="60">
+      <c r="A7" s="58">
         <v>2010</v>
       </c>
       <c r="B7" s="25">
@@ -2205,7 +2233,7 @@
       <c r="M7" s="27"/>
     </row>
     <row r="8" spans="1:13">
-      <c r="A8" s="60">
+      <c r="A8" s="58">
         <v>2011</v>
       </c>
       <c r="B8" s="25">
@@ -2244,7 +2272,7 @@
       <c r="M8" s="27"/>
     </row>
     <row r="9" spans="1:13">
-      <c r="A9" s="60">
+      <c r="A9" s="58">
         <v>2012</v>
       </c>
       <c r="B9" s="25">
@@ -2283,7 +2311,7 @@
       <c r="M9" s="27"/>
     </row>
     <row r="10" spans="1:13">
-      <c r="A10" s="60">
+      <c r="A10" s="58">
         <v>2013</v>
       </c>
       <c r="B10" s="25">
@@ -2322,121 +2350,121 @@
       <c r="M10" s="27"/>
     </row>
     <row r="11" spans="1:13">
-      <c r="A11" s="60">
+      <c r="A11" s="58">
         <v>2014</v>
       </c>
-      <c r="B11" s="61">
+      <c r="B11" s="59">
         <v>68.268059024407819</v>
       </c>
-      <c r="C11" s="61">
+      <c r="C11" s="59">
         <v>41.466626981061012</v>
       </c>
-      <c r="D11" s="61">
+      <c r="D11" s="59">
         <v>66.821761928636818</v>
       </c>
-      <c r="E11" s="61">
+      <c r="E11" s="59">
         <v>62.350607069844521</v>
       </c>
-      <c r="F11" s="61">
+      <c r="F11" s="59">
         <v>57.755504452456073</v>
       </c>
-      <c r="G11" s="61">
+      <c r="G11" s="59">
         <v>60.023255819075288</v>
       </c>
-      <c r="H11" s="61">
+      <c r="H11" s="59">
         <v>63.486087139395551</v>
       </c>
-      <c r="I11" s="61">
+      <c r="I11" s="59">
         <v>63.486087139395551</v>
       </c>
-      <c r="J11" s="61">
+      <c r="J11" s="59">
         <v>72.442600913520423</v>
       </c>
-      <c r="K11" s="61">
+      <c r="K11" s="59">
         <v>72.442600913520423</v>
       </c>
-      <c r="L11" s="61">
+      <c r="L11" s="59">
         <v>72.442600913520423</v>
       </c>
-      <c r="M11" s="61"/>
+      <c r="M11" s="59"/>
     </row>
     <row r="12" spans="1:13">
-      <c r="A12" s="60">
+      <c r="A12" s="58">
         <v>2015</v>
       </c>
-      <c r="B12" s="61">
+      <c r="B12" s="59">
         <v>67.142277076902047</v>
       </c>
-      <c r="C12" s="61">
+      <c r="C12" s="59">
         <v>44.530427377976459</v>
       </c>
-      <c r="D12" s="61">
+      <c r="D12" s="59">
         <v>64.398435293281167</v>
       </c>
-      <c r="E12" s="61">
+      <c r="E12" s="59">
         <v>65.968185971467832</v>
       </c>
-      <c r="F12" s="61">
+      <c r="F12" s="59">
         <v>60.137987224665444</v>
       </c>
-      <c r="G12" s="61">
+      <c r="G12" s="59">
         <v>61.752120474569928</v>
       </c>
-      <c r="H12" s="61">
+      <c r="H12" s="59">
         <v>64.596117372971534</v>
       </c>
-      <c r="I12" s="61">
+      <c r="I12" s="59">
         <v>64.596117372971534</v>
       </c>
-      <c r="J12" s="61">
+      <c r="J12" s="59">
         <v>72.902938630009132</v>
       </c>
-      <c r="K12" s="61">
+      <c r="K12" s="59">
         <v>72.902938630009132</v>
       </c>
-      <c r="L12" s="61">
+      <c r="L12" s="59">
         <v>72.902938630009132</v>
       </c>
-      <c r="M12" s="61"/>
+      <c r="M12" s="59"/>
     </row>
     <row r="13" spans="1:13">
-      <c r="A13" s="60">
+      <c r="A13" s="58">
         <v>2016</v>
       </c>
-      <c r="B13" s="61">
+      <c r="B13" s="59">
         <v>68.975185634807772</v>
       </c>
-      <c r="C13" s="61">
+      <c r="C13" s="59">
         <v>44.230057931978536</v>
       </c>
-      <c r="D13" s="61">
+      <c r="D13" s="59">
         <v>63.682273976982586</v>
       </c>
-      <c r="E13" s="61">
+      <c r="E13" s="59">
         <v>63.780588481850927</v>
       </c>
-      <c r="F13" s="61">
+      <c r="F13" s="59">
         <v>59.863469363528786</v>
       </c>
-      <c r="G13" s="61">
+      <c r="G13" s="59">
         <v>63.836336000706751</v>
       </c>
-      <c r="H13" s="61">
+      <c r="H13" s="59">
         <v>63.16073281948271</v>
       </c>
-      <c r="I13" s="61">
+      <c r="I13" s="59">
         <v>63.16073281948271</v>
       </c>
-      <c r="J13" s="61">
+      <c r="J13" s="59">
         <v>72.514356363742522</v>
       </c>
-      <c r="K13" s="61">
+      <c r="K13" s="59">
         <v>72.514356363742522</v>
       </c>
-      <c r="L13" s="61">
+      <c r="L13" s="59">
         <v>72.514356363742522</v>
       </c>
-      <c r="M13" s="61"/>
+      <c r="M13" s="59"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:M1">
@@ -2453,7 +2481,7 @@
   <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:H12"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2492,29 +2520,29 @@
       </c>
     </row>
     <row r="2" spans="2:8">
-      <c r="C2" s="59" t="e">
-        <f>VLOOKUP(C1,#REF!, 2, FALSE)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="D2" s="59" t="e">
-        <f>VLOOKUP(D1,#REF!, 2, FALSE)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="E2" s="59" t="e">
-        <f>VLOOKUP(E1,#REF!, 2, FALSE)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="F2" s="59" t="e">
-        <f>VLOOKUP(F1,#REF!, 2, FALSE)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="G2" s="59" t="e">
-        <f>VLOOKUP(G1,#REF!, 2, FALSE)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="H2" s="59" t="e">
-        <f>VLOOKUP(H1,#REF!, 2, FALSE)</f>
-        <v>#REF!</v>
+      <c r="C2" s="57" t="str">
+        <f>VLOOKUP(C1, [1]data!$A:$B, 2, FALSE)</f>
+        <v>ge-ka</v>
+      </c>
+      <c r="D2" s="57" t="str">
+        <f>VLOOKUP(D1, [1]data!$A:$B, 2, FALSE)</f>
+        <v>ge-sd</v>
+      </c>
+      <c r="E2" s="57" t="str">
+        <f>VLOOKUP(E1, [1]data!$A:$B, 2, FALSE)</f>
+        <v>ge-kk</v>
+      </c>
+      <c r="F2" s="57" t="str">
+        <f>VLOOKUP(F1, [1]data!$A:$B, 2, FALSE)</f>
+        <v>ge-aj</v>
+      </c>
+      <c r="G2" s="57" t="str">
+        <f>VLOOKUP(G1, [1]data!$A:$B, 2, FALSE)</f>
+        <v>ge-sz</v>
+      </c>
+      <c r="H2" s="57" t="str">
+        <f>VLOOKUP(H1, [1]data!$A:$B, 2, FALSE)</f>
+        <v>ge-im</v>
       </c>
     </row>
     <row r="3" spans="2:8">
@@ -2812,20 +2840,20 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:11" ht="22.5">
-      <c r="A1" s="42"/>
+      <c r="A1" s="40"/>
       <c r="B1" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="43" t="s">
+      <c r="C1" s="41" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="43" t="s">
+      <c r="D1" s="41" t="s">
         <v>16</v>
       </c>
-      <c r="E1" s="43" t="s">
+      <c r="E1" s="41" t="s">
         <v>19</v>
       </c>
-      <c r="F1" s="43" t="s">
+      <c r="F1" s="41" t="s">
         <v>22</v>
       </c>
       <c r="G1" t="s">
@@ -2834,441 +2862,441 @@
       <c r="H1" t="s">
         <v>28</v>
       </c>
-      <c r="I1" s="43" t="s">
+      <c r="I1" s="41" t="s">
         <v>31</v>
       </c>
-      <c r="J1" s="43" t="s">
+      <c r="J1" s="41" t="s">
         <v>34</v>
       </c>
-      <c r="K1" s="43" t="s">
+      <c r="K1" s="41" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:11">
-      <c r="A2" s="42"/>
-      <c r="B2" s="59" t="e">
-        <f>VLOOKUP(B1,#REF!, 2, FALSE)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="C2" s="59" t="e">
-        <f>VLOOKUP(C1,#REF!, 2, FALSE)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="D2" s="59" t="e">
-        <f>VLOOKUP(D1,#REF!, 2, FALSE)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="E2" s="59" t="e">
-        <f>VLOOKUP(E1,#REF!, 2, FALSE)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="F2" s="59" t="e">
-        <f>VLOOKUP(F1,#REF!, 2, FALSE)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="G2" s="59" t="e">
-        <f>VLOOKUP(G1,#REF!, 2, FALSE)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="H2" s="59" t="e">
-        <f>VLOOKUP(H1,#REF!, 2, FALSE)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="I2" s="59" t="e">
-        <f>VLOOKUP(I1,#REF!, 2, FALSE)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="J2" s="59" t="e">
-        <f>VLOOKUP(J1,#REF!, 2, FALSE)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="K2" s="59" t="e">
-        <f>VLOOKUP(K1,#REF!, 2, FALSE)</f>
-        <v>#REF!</v>
+      <c r="A2" s="40"/>
+      <c r="B2" s="57" t="str">
+        <f>VLOOKUP(B1, [1]data!$A:$B, 2, FALSE)</f>
+        <v>ge-aj</v>
+      </c>
+      <c r="C2" s="57" t="str">
+        <f>VLOOKUP(C1, [1]data!$A:$B, 2, FALSE)</f>
+        <v>ge-gu</v>
+      </c>
+      <c r="D2" s="57" t="str">
+        <f>VLOOKUP(D1, [1]data!$A:$B, 2, FALSE)</f>
+        <v>ge-im</v>
+      </c>
+      <c r="E2" s="57" t="str">
+        <f>VLOOKUP(E1, [1]data!$A:$B, 2, FALSE)</f>
+        <v>ge-ka</v>
+      </c>
+      <c r="F2" s="57" t="str">
+        <f>VLOOKUP(F1, [1]data!$A:$B, 2, FALSE)</f>
+        <v>ge-mm</v>
+      </c>
+      <c r="G2" s="57" t="str">
+        <f>VLOOKUP(G1, [1]data!$A:$B, 2, FALSE)</f>
+        <v>ge-rk</v>
+      </c>
+      <c r="H2" s="57" t="str">
+        <f>VLOOKUP(H1, [1]data!$A:$B, 2, FALSE)</f>
+        <v>ge-sz</v>
+      </c>
+      <c r="I2" s="57" t="str">
+        <f>VLOOKUP(I1, [1]data!$A:$B, 2, FALSE)</f>
+        <v>ge-sj</v>
+      </c>
+      <c r="J2" s="57" t="str">
+        <f>VLOOKUP(J1, [1]data!$A:$B, 2, FALSE)</f>
+        <v>ge-kk</v>
+      </c>
+      <c r="K2" s="57" t="str">
+        <f>VLOOKUP(K1, [1]data!$A:$B, 2, FALSE)</f>
+        <v>ge-sd</v>
       </c>
     </row>
     <row r="3" spans="1:11">
-      <c r="A3" s="66">
+      <c r="A3" s="61">
         <v>2006</v>
       </c>
-      <c r="B3" s="42">
+      <c r="B3" s="40">
         <v>219.9</v>
       </c>
-      <c r="C3" s="42">
+      <c r="C3" s="40">
         <v>120.2</v>
       </c>
-      <c r="D3" s="42">
+      <c r="D3" s="40">
         <v>165.4</v>
       </c>
-      <c r="E3" s="42">
+      <c r="E3" s="40">
         <v>141.19999999999999</v>
       </c>
-      <c r="F3" s="42">
+      <c r="F3" s="40">
         <v>289.89999999999998</v>
       </c>
-      <c r="G3" s="42">
+      <c r="G3" s="40">
         <v>165.4</v>
       </c>
-      <c r="H3" s="42">
+      <c r="H3" s="40">
         <v>278.8</v>
       </c>
-      <c r="I3" s="42">
+      <c r="I3" s="40">
         <v>192.3</v>
       </c>
-      <c r="J3" s="42">
+      <c r="J3" s="40">
         <v>281.3</v>
       </c>
-      <c r="K3" s="42">
+      <c r="K3" s="40">
         <v>161.80000000000001</v>
       </c>
     </row>
     <row r="4" spans="1:11">
-      <c r="A4" s="66">
+      <c r="A4" s="61">
         <v>2007</v>
       </c>
-      <c r="B4" s="42">
+      <c r="B4" s="40">
         <v>270.5</v>
       </c>
-      <c r="C4" s="42">
+      <c r="C4" s="40">
         <v>149.19999999999999</v>
       </c>
-      <c r="D4" s="42">
+      <c r="D4" s="40">
         <v>202.8</v>
       </c>
-      <c r="E4" s="42">
+      <c r="E4" s="40">
         <v>188.4</v>
       </c>
-      <c r="F4" s="42">
+      <c r="F4" s="40">
         <v>292.3</v>
       </c>
-      <c r="G4" s="42">
+      <c r="G4" s="40">
         <v>191.6</v>
       </c>
-      <c r="H4" s="42">
+      <c r="H4" s="40">
         <v>368</v>
       </c>
-      <c r="I4" s="42">
+      <c r="I4" s="40">
         <v>179.5</v>
       </c>
-      <c r="J4" s="42">
+      <c r="J4" s="40">
         <v>371.6</v>
       </c>
-      <c r="K4" s="42">
+      <c r="K4" s="40">
         <v>233</v>
       </c>
     </row>
     <row r="5" spans="1:11">
-      <c r="A5" s="66">
+      <c r="A5" s="61">
         <v>2008</v>
       </c>
-      <c r="B5" s="42">
+      <c r="B5" s="40">
         <v>383</v>
       </c>
-      <c r="C5" s="42">
+      <c r="C5" s="40">
         <v>273.5</v>
       </c>
-      <c r="D5" s="42">
+      <c r="D5" s="40">
         <v>287.10000000000002</v>
       </c>
-      <c r="E5" s="42">
+      <c r="E5" s="40">
         <v>224.6</v>
       </c>
-      <c r="F5" s="42">
+      <c r="F5" s="40">
         <v>375.7</v>
       </c>
-      <c r="G5" s="42">
+      <c r="G5" s="40">
         <v>311.60000000000002</v>
       </c>
-      <c r="H5" s="42">
+      <c r="H5" s="40">
         <v>381.5</v>
       </c>
-      <c r="I5" s="42">
+      <c r="I5" s="40">
         <v>290.7</v>
       </c>
-      <c r="J5" s="42">
+      <c r="J5" s="40">
         <v>511.2</v>
       </c>
-      <c r="K5" s="42">
+      <c r="K5" s="40">
         <v>309.60000000000002</v>
       </c>
     </row>
     <row r="6" spans="1:11">
-      <c r="A6" s="66">
+      <c r="A6" s="61">
         <v>2009</v>
       </c>
-      <c r="B6" s="42">
+      <c r="B6" s="40">
         <v>399.1</v>
       </c>
-      <c r="C6" s="42">
+      <c r="C6" s="40">
         <v>234.9</v>
       </c>
-      <c r="D6" s="42">
+      <c r="D6" s="40">
         <v>309.89999999999998</v>
       </c>
-      <c r="E6" s="42">
+      <c r="E6" s="40">
         <v>303.7</v>
       </c>
-      <c r="F6" s="42">
+      <c r="F6" s="40">
         <v>457</v>
       </c>
-      <c r="G6" s="42">
+      <c r="G6" s="40">
         <v>276.3</v>
       </c>
-      <c r="H6" s="42">
+      <c r="H6" s="40">
         <v>393.3</v>
       </c>
-      <c r="I6" s="42">
+      <c r="I6" s="40">
         <v>295.10000000000002</v>
       </c>
-      <c r="J6" s="42">
+      <c r="J6" s="40">
         <v>481.9</v>
       </c>
-      <c r="K6" s="42">
+      <c r="K6" s="40">
         <v>286</v>
       </c>
     </row>
     <row r="7" spans="1:11">
-      <c r="A7" s="66">
+      <c r="A7" s="61">
         <v>2010</v>
       </c>
-      <c r="B7" s="42">
+      <c r="B7" s="40">
         <v>441.4</v>
       </c>
-      <c r="C7" s="42">
+      <c r="C7" s="40">
         <v>264.8</v>
       </c>
-      <c r="D7" s="42">
+      <c r="D7" s="40">
         <v>370.7</v>
       </c>
-      <c r="E7" s="42">
+      <c r="E7" s="40">
         <v>355.1</v>
       </c>
-      <c r="F7" s="42">
+      <c r="F7" s="40">
         <v>518.4</v>
       </c>
-      <c r="G7" s="42">
+      <c r="G7" s="40">
         <v>343.2</v>
       </c>
-      <c r="H7" s="42">
+      <c r="H7" s="40">
         <v>443.7</v>
       </c>
-      <c r="I7" s="42">
+      <c r="I7" s="40">
         <v>350.8</v>
       </c>
-      <c r="J7" s="42">
+      <c r="J7" s="40">
         <v>571.5</v>
       </c>
-      <c r="K7" s="42">
+      <c r="K7" s="40">
         <v>332.5</v>
       </c>
     </row>
     <row r="8" spans="1:11">
-      <c r="A8" s="66">
+      <c r="A8" s="61">
         <v>2011</v>
       </c>
-      <c r="B8" s="42">
+      <c r="B8" s="40">
         <v>477.8</v>
       </c>
-      <c r="C8" s="42">
+      <c r="C8" s="40">
         <v>276.39999999999998</v>
       </c>
-      <c r="D8" s="42">
+      <c r="D8" s="40">
         <v>435.4</v>
       </c>
-      <c r="E8" s="42">
+      <c r="E8" s="40">
         <v>323.2</v>
       </c>
-      <c r="F8" s="42">
+      <c r="F8" s="40">
         <v>608</v>
       </c>
-      <c r="G8" s="42">
+      <c r="G8" s="40">
         <v>259.8</v>
       </c>
-      <c r="H8" s="42">
+      <c r="H8" s="40">
         <v>436.4</v>
       </c>
-      <c r="I8" s="42">
+      <c r="I8" s="40">
         <v>372.1</v>
       </c>
-      <c r="J8" s="42">
+      <c r="J8" s="40">
         <v>547.5</v>
       </c>
-      <c r="K8" s="42">
+      <c r="K8" s="40">
         <v>361.2</v>
       </c>
     </row>
     <row r="9" spans="1:11">
-      <c r="A9" s="66">
+      <c r="A9" s="61">
         <v>2012</v>
       </c>
-      <c r="B9" s="42">
+      <c r="B9" s="40">
         <v>536.70000000000005</v>
       </c>
-      <c r="C9" s="42">
+      <c r="C9" s="40">
         <v>264.39999999999998</v>
       </c>
-      <c r="D9" s="42">
+      <c r="D9" s="40">
         <v>481</v>
       </c>
-      <c r="E9" s="42">
+      <c r="E9" s="40">
         <v>384</v>
       </c>
-      <c r="F9" s="42">
+      <c r="F9" s="40">
         <v>574.1</v>
       </c>
-      <c r="G9" s="42">
+      <c r="G9" s="40">
         <v>300.10000000000002</v>
       </c>
-      <c r="H9" s="42">
+      <c r="H9" s="40">
         <v>527.4</v>
       </c>
-      <c r="I9" s="42">
+      <c r="I9" s="40">
         <v>441.3</v>
       </c>
-      <c r="J9" s="42">
+      <c r="J9" s="40">
         <v>663</v>
       </c>
-      <c r="K9" s="42">
+      <c r="K9" s="40">
         <v>436.1</v>
       </c>
     </row>
     <row r="10" spans="1:11">
-      <c r="A10" s="66">
+      <c r="A10" s="61">
         <v>2013</v>
       </c>
-      <c r="B10" s="42">
+      <c r="B10" s="40">
         <v>577.29999999999995</v>
       </c>
-      <c r="C10" s="42">
+      <c r="C10" s="40">
         <v>327.8</v>
       </c>
-      <c r="D10" s="42">
+      <c r="D10" s="40">
         <v>489.3</v>
       </c>
-      <c r="E10" s="42">
+      <c r="E10" s="40">
         <v>447.7</v>
       </c>
-      <c r="F10" s="42">
+      <c r="F10" s="40">
         <v>775</v>
       </c>
-      <c r="G10" s="42">
+      <c r="G10" s="40">
         <v>351.5</v>
       </c>
-      <c r="H10" s="42">
+      <c r="H10" s="40">
         <v>587</v>
       </c>
-      <c r="I10" s="42">
+      <c r="I10" s="40">
         <v>591.4</v>
       </c>
-      <c r="J10" s="42">
+      <c r="J10" s="40">
         <v>679.6</v>
       </c>
-      <c r="K10" s="42">
+      <c r="K10" s="40">
         <v>421.2</v>
       </c>
     </row>
     <row r="11" spans="1:11">
-      <c r="A11" s="66">
+      <c r="A11" s="61">
         <v>2014</v>
       </c>
-      <c r="B11" s="42">
+      <c r="B11" s="40">
         <v>644.9</v>
       </c>
-      <c r="C11" s="42">
+      <c r="C11" s="40">
         <v>397</v>
       </c>
-      <c r="D11" s="42">
+      <c r="D11" s="40">
         <v>505.1</v>
       </c>
-      <c r="E11" s="42">
+      <c r="E11" s="40">
         <v>460.3</v>
       </c>
-      <c r="F11" s="42">
+      <c r="F11" s="40">
         <v>814.9</v>
       </c>
-      <c r="G11" s="42">
+      <c r="G11" s="40">
         <v>391.6</v>
       </c>
-      <c r="H11" s="42">
+      <c r="H11" s="40">
         <v>605.20000000000005</v>
       </c>
-      <c r="I11" s="42">
+      <c r="I11" s="40">
         <v>587.5</v>
       </c>
-      <c r="J11" s="42">
+      <c r="J11" s="40">
         <v>690.2</v>
       </c>
-      <c r="K11" s="42">
+      <c r="K11" s="40">
         <v>464.8</v>
       </c>
     </row>
     <row r="12" spans="1:11">
-      <c r="A12" s="66">
+      <c r="A12" s="61">
         <v>2015</v>
       </c>
-      <c r="B12" s="44">
+      <c r="B12" s="42">
         <v>821.5</v>
       </c>
-      <c r="C12" s="44">
+      <c r="C12" s="42">
         <v>641.1</v>
       </c>
-      <c r="D12" s="44">
+      <c r="D12" s="42">
         <v>604.6</v>
       </c>
-      <c r="E12" s="44">
+      <c r="E12" s="42">
         <v>521.79999999999995</v>
       </c>
-      <c r="F12" s="44">
+      <c r="F12" s="42">
         <v>890.3</v>
       </c>
-      <c r="G12" s="44">
+      <c r="G12" s="42">
         <v>414.5</v>
       </c>
-      <c r="H12" s="44">
+      <c r="H12" s="42">
         <v>644.70000000000005</v>
       </c>
-      <c r="I12" s="44">
+      <c r="I12" s="42">
         <v>573.9</v>
       </c>
-      <c r="J12" s="44">
+      <c r="J12" s="42">
         <v>779.2</v>
       </c>
-      <c r="K12" s="44">
+      <c r="K12" s="42">
         <v>511.3</v>
       </c>
     </row>
     <row r="13" spans="1:11">
-      <c r="A13" s="66">
+      <c r="A13" s="61">
         <v>2016</v>
       </c>
-      <c r="B13" s="44">
+      <c r="B13" s="42">
         <v>1002.3536486143336</v>
       </c>
-      <c r="C13" s="44">
+      <c r="C13" s="42">
         <v>650.12914513135308</v>
       </c>
-      <c r="D13" s="44">
+      <c r="D13" s="42">
         <v>676.27336796574025</v>
       </c>
-      <c r="E13" s="44">
+      <c r="E13" s="42">
         <v>606.84880480812046</v>
       </c>
-      <c r="F13" s="44">
+      <c r="F13" s="42">
         <v>968.6096226841953</v>
       </c>
-      <c r="G13" s="44">
+      <c r="G13" s="42">
         <v>550.0808308773934</v>
       </c>
-      <c r="H13" s="44">
+      <c r="H13" s="42">
         <v>767.27784605503587</v>
       </c>
-      <c r="I13" s="44">
+      <c r="I13" s="42">
         <v>707.28406223714512</v>
       </c>
-      <c r="J13" s="44">
+      <c r="J13" s="42">
         <v>861.86297147354162</v>
       </c>
-      <c r="K13" s="44">
+      <c r="K13" s="42">
         <v>557.40925517694791</v>
       </c>
     </row>
@@ -3282,7 +3310,7 @@
   <dimension ref="A1:K10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3291,17 +3319,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="30.75" customHeight="1">
-      <c r="A1" s="45"/>
-      <c r="B1" s="45" t="s">
+      <c r="A1" s="43"/>
+      <c r="B1" s="43" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="45" t="s">
+      <c r="C1" s="43" t="s">
         <v>19</v>
       </c>
-      <c r="D1" s="45" t="s">
+      <c r="D1" s="43" t="s">
         <v>31</v>
       </c>
-      <c r="E1" s="45" t="s">
+      <c r="E1" s="43" t="s">
         <v>34</v>
       </c>
       <c r="F1" t="s">
@@ -3310,7 +3338,7 @@
       <c r="G1" t="s">
         <v>10</v>
       </c>
-      <c r="H1" s="45" t="s">
+      <c r="H1" s="43" t="s">
         <v>16</v>
       </c>
       <c r="I1" t="s">
@@ -3324,325 +3352,325 @@
       </c>
     </row>
     <row r="2" spans="1:11" ht="30.75" customHeight="1">
-      <c r="A2" s="45"/>
-      <c r="B2" s="59" t="e">
-        <f>VLOOKUP(B1,#REF!, 2, FALSE)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="C2" s="59" t="e">
-        <f>VLOOKUP(C1,#REF!, 2, FALSE)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="D2" s="59" t="e">
-        <f>VLOOKUP(D1,#REF!, 2, FALSE)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="E2" s="59" t="e">
-        <f>VLOOKUP(E1,#REF!, 2, FALSE)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="F2" s="59" t="e">
-        <f>VLOOKUP(F1,#REF!, 2, FALSE)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="G2" s="59" t="e">
-        <f>VLOOKUP(G1,#REF!, 2, FALSE)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="H2" s="59" t="e">
-        <f>VLOOKUP(H1,#REF!, 2, FALSE)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="I2" s="59" t="e">
-        <f>VLOOKUP(I1,#REF!, 2, FALSE)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="J2" s="59" t="e">
-        <f>VLOOKUP(J1,#REF!, 2, FALSE)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="K2" s="59" t="e">
-        <f>VLOOKUP(K1,#REF!, 2, FALSE)</f>
-        <v>#REF!</v>
+      <c r="A2" s="43"/>
+      <c r="B2" s="57" t="str">
+        <f>VLOOKUP(B1, [1]data!$A:$B, 2, FALSE)</f>
+        <v>ge-aj</v>
+      </c>
+      <c r="C2" s="57" t="str">
+        <f>VLOOKUP(C1, [1]data!$A:$B, 2, FALSE)</f>
+        <v>ge-ka</v>
+      </c>
+      <c r="D2" s="57" t="str">
+        <f>VLOOKUP(D1, [1]data!$A:$B, 2, FALSE)</f>
+        <v>ge-sj</v>
+      </c>
+      <c r="E2" s="57" t="str">
+        <f>VLOOKUP(E1, [1]data!$A:$B, 2, FALSE)</f>
+        <v>ge-kk</v>
+      </c>
+      <c r="F2" s="57" t="str">
+        <f>VLOOKUP(F1, [1]data!$A:$B, 2, FALSE)</f>
+        <v>ge-sz</v>
+      </c>
+      <c r="G2" s="57" t="str">
+        <f>VLOOKUP(G1, [1]data!$A:$B, 2, FALSE)</f>
+        <v>ge-gu</v>
+      </c>
+      <c r="H2" s="57" t="str">
+        <f>VLOOKUP(H1, [1]data!$A:$B, 2, FALSE)</f>
+        <v>ge-im</v>
+      </c>
+      <c r="I2" s="57" t="str">
+        <f>VLOOKUP(I1, [1]data!$A:$B, 2, FALSE)</f>
+        <v>ge-rk</v>
+      </c>
+      <c r="J2" s="57" t="str">
+        <f>VLOOKUP(J1, [1]data!$A:$B, 2, FALSE)</f>
+        <v>ge-sd</v>
+      </c>
+      <c r="K2" s="57" t="str">
+        <f>VLOOKUP(K1, [1]data!$A:$B, 2, FALSE)</f>
+        <v>ge-mm</v>
       </c>
     </row>
     <row r="3" spans="1:11">
-      <c r="A3" s="45">
+      <c r="A3" s="43">
         <v>2009</v>
       </c>
-      <c r="B3" s="46">
+      <c r="B3" s="44">
         <v>99386.405900000012</v>
       </c>
-      <c r="C3" s="46">
+      <c r="C3" s="44">
         <v>4193.9268999999995</v>
       </c>
-      <c r="D3" s="46">
+      <c r="D3" s="44">
         <v>-459.43540000000002</v>
       </c>
-      <c r="E3" s="46">
+      <c r="E3" s="44">
         <v>49765.014999999999</v>
       </c>
-      <c r="F3" s="51">
+      <c r="F3" s="49">
         <v>100357.177</v>
       </c>
-      <c r="G3" s="51">
+      <c r="G3" s="49">
         <v>100357.177</v>
       </c>
-      <c r="H3" s="51">
+      <c r="H3" s="49">
         <v>61057.960899999998</v>
       </c>
-      <c r="I3" s="51">
+      <c r="I3" s="49">
         <v>61057.960899999998</v>
       </c>
-      <c r="J3" s="53">
+      <c r="J3" s="51">
         <v>-1025.9527999999998</v>
       </c>
-      <c r="K3" s="53">
+      <c r="K3" s="51">
         <v>-1025.9527999999998</v>
       </c>
     </row>
     <row r="4" spans="1:11">
-      <c r="A4" s="45">
+      <c r="A4" s="43">
         <v>2010</v>
       </c>
-      <c r="B4" s="46">
+      <c r="B4" s="44">
         <v>56573.136599999998</v>
       </c>
-      <c r="C4" s="46">
+      <c r="C4" s="44">
         <v>-4810.3328000000001</v>
       </c>
-      <c r="D4" s="46">
+      <c r="D4" s="44">
         <v>21405.311300000001</v>
       </c>
-      <c r="E4" s="46">
+      <c r="E4" s="44">
         <v>66685.3842</v>
       </c>
-      <c r="F4" s="51">
+      <c r="F4" s="49">
         <v>25013.402099999999</v>
       </c>
-      <c r="G4" s="51">
+      <c r="G4" s="49">
         <v>25013.402099999999</v>
       </c>
-      <c r="H4" s="51">
+      <c r="H4" s="49">
         <v>80126.483100000012</v>
       </c>
-      <c r="I4" s="51">
+      <c r="I4" s="49">
         <v>80126.483100000012</v>
       </c>
-      <c r="J4" s="53">
+      <c r="J4" s="51">
         <v>9599.4188000000031</v>
       </c>
-      <c r="K4" s="53">
+      <c r="K4" s="51">
         <v>9599.4188000000031</v>
       </c>
     </row>
     <row r="5" spans="1:11">
-      <c r="A5" s="45">
+      <c r="A5" s="43">
         <v>2011</v>
       </c>
-      <c r="B5" s="46">
+      <c r="B5" s="44">
         <v>93867.987300000008</v>
       </c>
-      <c r="C5" s="46">
+      <c r="C5" s="44">
         <v>352.37699999999973</v>
       </c>
-      <c r="D5" s="46">
+      <c r="D5" s="44">
         <v>4546.9610000000011</v>
       </c>
-      <c r="E5" s="46">
+      <c r="E5" s="44">
         <v>146882.62969999999</v>
       </c>
-      <c r="F5" s="46">
+      <c r="F5" s="44">
         <v>66326.507600000012</v>
       </c>
-      <c r="G5" s="46">
+      <c r="G5" s="44">
         <v>66326.507600000012</v>
       </c>
-      <c r="H5" s="46">
+      <c r="H5" s="44">
         <v>-14714.510800000002</v>
       </c>
-      <c r="I5" s="46">
+      <c r="I5" s="44">
         <v>-14714.510800000002</v>
       </c>
-      <c r="J5" s="54">
+      <c r="J5" s="52">
         <v>14753.974600000001</v>
       </c>
-      <c r="K5" s="54">
+      <c r="K5" s="52">
         <v>14753.974600000001</v>
       </c>
     </row>
     <row r="6" spans="1:11">
-      <c r="A6" s="45">
+      <c r="A6" s="43">
         <v>2012</v>
       </c>
-      <c r="B6" s="46">
+      <c r="B6" s="44">
         <v>39105.435554600001</v>
       </c>
-      <c r="C6" s="46">
+      <c r="C6" s="44">
         <v>15087.968839599996</v>
       </c>
-      <c r="D6" s="46">
+      <c r="D6" s="44">
         <v>21251.3460151</v>
       </c>
-      <c r="E6" s="46">
+      <c r="E6" s="44">
         <v>41648.26851899999</v>
       </c>
-      <c r="F6" s="46">
+      <c r="F6" s="44">
         <v>55278.245573699991</v>
       </c>
-      <c r="G6" s="46">
+      <c r="G6" s="44">
         <v>55278.245573699991</v>
       </c>
-      <c r="H6" s="46">
+      <c r="H6" s="44">
         <v>37773.170327500004</v>
       </c>
-      <c r="I6" s="46">
+      <c r="I6" s="44">
         <v>37773.170327500004</v>
       </c>
-      <c r="J6" s="54">
+      <c r="J6" s="52">
         <v>7986.0223197000078</v>
       </c>
-      <c r="K6" s="54">
+      <c r="K6" s="52">
         <v>7986.0223197000078</v>
       </c>
     </row>
     <row r="7" spans="1:11">
-      <c r="A7" s="45">
+      <c r="A7" s="43">
         <v>2013</v>
       </c>
-      <c r="B7" s="46">
+      <c r="B7" s="44">
         <v>61544.283800000005</v>
       </c>
-      <c r="C7" s="46">
+      <c r="C7" s="44">
         <v>9892.6702000000005</v>
       </c>
-      <c r="D7" s="46">
+      <c r="D7" s="44">
         <v>51732.604399999997</v>
       </c>
-      <c r="E7" s="50">
+      <c r="E7" s="48">
         <v>14430.188400000003</v>
       </c>
-      <c r="F7" s="50">
+      <c r="F7" s="48">
         <v>57229.754200000003</v>
       </c>
-      <c r="G7" s="50">
+      <c r="G7" s="48">
         <v>57229.754200000003</v>
       </c>
-      <c r="H7" s="46">
+      <c r="H7" s="44">
         <v>58881.95100000003</v>
       </c>
-      <c r="I7" s="46">
+      <c r="I7" s="44">
         <v>58881.95100000003</v>
       </c>
-      <c r="J7" s="54">
+      <c r="J7" s="52">
         <v>-176.49519999999893</v>
       </c>
-      <c r="K7" s="54">
+      <c r="K7" s="52">
         <v>-176.49519999999893</v>
       </c>
     </row>
     <row r="8" spans="1:11">
-      <c r="A8" s="45">
+      <c r="A8" s="43">
         <v>2014</v>
       </c>
-      <c r="B8" s="47">
+      <c r="B8" s="45">
         <v>159275.06879999998</v>
       </c>
-      <c r="C8" s="47">
+      <c r="C8" s="45">
         <v>10530.444100000001</v>
       </c>
-      <c r="D8" s="47">
+      <c r="D8" s="45">
         <v>74040.682000000001</v>
       </c>
-      <c r="E8" s="47">
+      <c r="E8" s="45">
         <v>55083.367899999997</v>
       </c>
-      <c r="F8" s="47">
+      <c r="F8" s="45">
         <v>93648.191200000001</v>
       </c>
-      <c r="G8" s="47">
+      <c r="G8" s="45">
         <v>93648.191200000001</v>
       </c>
-      <c r="H8" s="52">
+      <c r="H8" s="50">
         <v>26363.711299999999</v>
       </c>
-      <c r="I8" s="52">
+      <c r="I8" s="50">
         <v>26363.711299999999</v>
       </c>
-      <c r="J8" s="55">
+      <c r="J8" s="53">
         <v>12544.848600000001</v>
       </c>
-      <c r="K8" s="55">
+      <c r="K8" s="53">
         <v>12544.848600000001</v>
       </c>
     </row>
     <row r="9" spans="1:11">
-      <c r="A9" s="45">
+      <c r="A9" s="43">
         <v>2015</v>
       </c>
-      <c r="B9" s="48">
+      <c r="B9" s="46">
         <v>204531.00809999986</v>
       </c>
-      <c r="C9" s="48">
+      <c r="C9" s="46">
         <v>16118.634500000007</v>
       </c>
-      <c r="D9" s="48">
+      <c r="D9" s="46">
         <v>28099.269499999995</v>
       </c>
-      <c r="E9" s="48">
+      <c r="E9" s="46">
         <v>21159.770399999994</v>
       </c>
-      <c r="F9" s="48">
+      <c r="F9" s="46">
         <v>49822.338099999979</v>
       </c>
-      <c r="G9" s="48">
+      <c r="G9" s="46">
         <v>49822.338099999979</v>
       </c>
-      <c r="H9" s="48">
+      <c r="H9" s="46">
         <v>25701.826299999993</v>
       </c>
-      <c r="I9" s="48">
+      <c r="I9" s="46">
         <v>25701.826299999993</v>
       </c>
-      <c r="J9" s="56">
+      <c r="J9" s="54">
         <v>-15590.065899999994</v>
       </c>
-      <c r="K9" s="56">
+      <c r="K9" s="54">
         <v>-15590.065899999994</v>
       </c>
     </row>
     <row r="10" spans="1:11">
-      <c r="A10" s="45">
+      <c r="A10" s="43">
         <v>2016</v>
       </c>
-      <c r="B10" s="49">
+      <c r="B10" s="47">
         <v>160976.94080000001</v>
       </c>
-      <c r="C10" s="49">
+      <c r="C10" s="47">
         <v>962.24330000000032</v>
       </c>
-      <c r="D10" s="49">
+      <c r="D10" s="47">
         <v>50180.567799999997</v>
       </c>
-      <c r="E10" s="49">
+      <c r="E10" s="47">
         <v>77478.487599999979</v>
       </c>
-      <c r="F10" s="49">
+      <c r="F10" s="47">
         <v>52614.48000000001</v>
       </c>
-      <c r="G10" s="49">
+      <c r="G10" s="47">
         <v>52614.48000000001</v>
       </c>
-      <c r="H10" s="49">
+      <c r="H10" s="47">
         <v>26584.099999999995</v>
       </c>
-      <c r="I10" s="49">
+      <c r="I10" s="47">
         <v>26584.099999999995</v>
       </c>
-      <c r="J10" s="57">
+      <c r="J10" s="55">
         <v>714.70679999999822</v>
       </c>
-      <c r="K10" s="57">
+      <c r="K10" s="55">
         <v>714.70679999999822</v>
       </c>
     </row>
@@ -3655,8 +3683,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3710,45 +3738,45 @@
     </row>
     <row r="2" spans="1:11">
       <c r="A2" s="2"/>
-      <c r="B2" s="59" t="e">
-        <f>VLOOKUP(B1,#REF!, 2, FALSE)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="C2" s="59" t="e">
-        <f>VLOOKUP(C1,#REF!, 2, FALSE)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="D2" s="59" t="e">
-        <f>VLOOKUP(D1,#REF!, 2, FALSE)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="E2" s="59" t="e">
-        <f>VLOOKUP(E1,#REF!, 2, FALSE)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="F2" s="59" t="e">
-        <f>VLOOKUP(F1,#REF!, 2, FALSE)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="G2" s="59" t="e">
-        <f>VLOOKUP(G1,#REF!, 2, FALSE)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="H2" s="59" t="e">
-        <f>VLOOKUP(H1,#REF!, 2, FALSE)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="I2" s="59" t="e">
-        <f>VLOOKUP(I1,#REF!, 2, FALSE)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="J2" s="59" t="e">
-        <f>VLOOKUP(J1,#REF!, 2, FALSE)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="K2" s="59" t="e">
-        <f>VLOOKUP(K1,#REF!, 2, FALSE)</f>
-        <v>#REF!</v>
+      <c r="B2" s="57" t="str">
+        <f>VLOOKUP(B1, [1]data!$A:$B, 2, FALSE)</f>
+        <v>ge-ka</v>
+      </c>
+      <c r="C2" s="57" t="str">
+        <f>VLOOKUP(C1, [1]data!$A:$B, 2, FALSE)</f>
+        <v>ge-sd</v>
+      </c>
+      <c r="D2" s="57" t="str">
+        <f>VLOOKUP(D1, [1]data!$A:$B, 2, FALSE)</f>
+        <v>ge-kk</v>
+      </c>
+      <c r="E2" s="57" t="str">
+        <f>VLOOKUP(E1, [1]data!$A:$B, 2, FALSE)</f>
+        <v>ge-sj</v>
+      </c>
+      <c r="F2" s="57" t="str">
+        <f>VLOOKUP(F1, [1]data!$A:$B, 2, FALSE)</f>
+        <v>ge-aj</v>
+      </c>
+      <c r="G2" s="57" t="str">
+        <f>VLOOKUP(G1, [1]data!$A:$B, 2, FALSE)</f>
+        <v>ge-gu</v>
+      </c>
+      <c r="H2" s="57" t="str">
+        <f>VLOOKUP(H1, [1]data!$A:$B, 2, FALSE)</f>
+        <v>ge-sz</v>
+      </c>
+      <c r="I2" s="57" t="str">
+        <f>VLOOKUP(I1, [1]data!$A:$B, 2, FALSE)</f>
+        <v>ge-im</v>
+      </c>
+      <c r="J2" s="57" t="str">
+        <f>VLOOKUP(J1, [1]data!$A:$B, 2, FALSE)</f>
+        <v>ge-mm</v>
+      </c>
+      <c r="K2" s="57" t="str">
+        <f>VLOOKUP(K1, [1]data!$A:$B, 2, FALSE)</f>
+        <v>ge-rk</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -4143,438 +4171,480 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K12"/>
+  <dimension ref="A1:K13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="8.28515625" style="41" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.42578125" style="41" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="8.28515625" style="41" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.140625" style="41"/>
-    <col min="7" max="7" width="8.7109375" style="41" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.85546875" style="41" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.7109375" style="41" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="8.85546875" style="41" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.28515625" style="39" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.42578125" style="39" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="8.28515625" style="39" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" style="39"/>
+    <col min="7" max="7" width="8.7109375" style="39" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.85546875" style="39" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.7109375" style="39" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="8.85546875" style="39" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="56.25">
-      <c r="B1" s="38" t="s">
-        <v>73</v>
-      </c>
-      <c r="C1" s="38" t="s">
-        <v>74</v>
-      </c>
-      <c r="D1" s="38" t="s">
-        <v>75</v>
-      </c>
-      <c r="E1" s="38" t="s">
-        <v>76</v>
-      </c>
-      <c r="F1" s="39" t="s">
-        <v>77</v>
-      </c>
-      <c r="G1" s="39" t="s">
-        <v>78</v>
-      </c>
-      <c r="H1" s="39" t="s">
-        <v>79</v>
-      </c>
-      <c r="I1" s="39" t="s">
-        <v>80</v>
-      </c>
-      <c r="J1" s="39" t="s">
-        <v>81</v>
-      </c>
-      <c r="K1" s="39" t="s">
-        <v>82</v>
+    <row r="1" spans="1:11">
+      <c r="B1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J1" t="s">
+        <v>34</v>
+      </c>
+      <c r="K1" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:11">
-      <c r="A2">
-        <v>2006</v>
-      </c>
-      <c r="B2" s="40">
-        <v>32271</v>
-      </c>
-      <c r="C2" s="40">
-        <v>5024</v>
-      </c>
-      <c r="D2" s="40">
-        <v>37371</v>
-      </c>
-      <c r="E2" s="40">
-        <v>15863</v>
-      </c>
-      <c r="F2" s="40">
-        <v>7248</v>
-      </c>
-      <c r="G2" s="40">
-        <v>3303</v>
-      </c>
-      <c r="H2" s="40">
-        <v>20862</v>
-      </c>
-      <c r="I2" s="40">
-        <v>7587</v>
-      </c>
-      <c r="J2" s="40">
-        <v>26216</v>
-      </c>
-      <c r="K2" s="40">
-        <v>14743</v>
+      <c r="B2" s="57" t="str">
+        <f>VLOOKUP(B1, [1]data!$A:$B, 2, FALSE)</f>
+        <v>ge-aj</v>
+      </c>
+      <c r="C2" s="57" t="str">
+        <f>VLOOKUP(C1, [1]data!$A:$B, 2, FALSE)</f>
+        <v>ge-gu</v>
+      </c>
+      <c r="D2" s="57" t="str">
+        <f>VLOOKUP(D1, [1]data!$A:$B, 2, FALSE)</f>
+        <v>ge-im</v>
+      </c>
+      <c r="E2" s="57" t="str">
+        <f>VLOOKUP(E1, [1]data!$A:$B, 2, FALSE)</f>
+        <v>ge-ka</v>
+      </c>
+      <c r="F2" s="57" t="str">
+        <f>VLOOKUP(F1, [1]data!$A:$B, 2, FALSE)</f>
+        <v>ge-mm</v>
+      </c>
+      <c r="G2" s="57" t="str">
+        <f>VLOOKUP(G1, [1]data!$A:$B, 2, FALSE)</f>
+        <v>ge-rk</v>
+      </c>
+      <c r="H2" s="57" t="str">
+        <f>VLOOKUP(H1, [1]data!$A:$B, 2, FALSE)</f>
+        <v>ge-sz</v>
+      </c>
+      <c r="I2" s="57" t="str">
+        <f>VLOOKUP(I1, [1]data!$A:$B, 2, FALSE)</f>
+        <v>ge-sj</v>
+      </c>
+      <c r="J2" s="57" t="str">
+        <f>VLOOKUP(J1, [1]data!$A:$B, 2, FALSE)</f>
+        <v>ge-kk</v>
+      </c>
+      <c r="K2" s="57" t="str">
+        <f>VLOOKUP(K1, [1]data!$A:$B, 2, FALSE)</f>
+        <v>ge-sd</v>
       </c>
     </row>
     <row r="3" spans="1:11">
       <c r="A3">
-        <v>2007</v>
-      </c>
-      <c r="B3" s="40">
-        <v>30523</v>
-      </c>
-      <c r="C3" s="40">
-        <v>5205</v>
-      </c>
-      <c r="D3" s="40">
-        <v>37240</v>
-      </c>
-      <c r="E3" s="40">
-        <v>14218</v>
-      </c>
-      <c r="F3" s="40">
-        <v>5511</v>
-      </c>
-      <c r="G3" s="40">
-        <v>2460</v>
-      </c>
-      <c r="H3" s="40">
-        <v>21900</v>
-      </c>
-      <c r="I3" s="40">
-        <v>7424</v>
-      </c>
-      <c r="J3" s="40">
-        <v>27961</v>
-      </c>
-      <c r="K3" s="40">
-        <v>11810</v>
+        <v>2006</v>
+      </c>
+      <c r="B3" s="38">
+        <v>32271</v>
+      </c>
+      <c r="C3" s="38">
+        <v>5024</v>
+      </c>
+      <c r="D3" s="38">
+        <v>37371</v>
+      </c>
+      <c r="E3" s="38">
+        <v>15863</v>
+      </c>
+      <c r="F3" s="38">
+        <v>7248</v>
+      </c>
+      <c r="G3" s="38">
+        <v>3303</v>
+      </c>
+      <c r="H3" s="38">
+        <v>20862</v>
+      </c>
+      <c r="I3" s="38">
+        <v>7587</v>
+      </c>
+      <c r="J3" s="38">
+        <v>26216</v>
+      </c>
+      <c r="K3" s="38">
+        <v>14743</v>
       </c>
     </row>
     <row r="4" spans="1:11">
       <c r="A4">
-        <v>2008</v>
-      </c>
-      <c r="B4" s="40">
-        <v>29229</v>
-      </c>
-      <c r="C4" s="40">
-        <v>4647</v>
-      </c>
-      <c r="D4" s="40">
-        <v>36086</v>
-      </c>
-      <c r="E4" s="40">
-        <v>12552</v>
-      </c>
-      <c r="F4" s="40">
-        <v>4346</v>
-      </c>
-      <c r="G4" s="40">
-        <v>1839</v>
-      </c>
-      <c r="H4" s="40">
-        <v>19555</v>
-      </c>
-      <c r="I4" s="40">
-        <v>8296</v>
-      </c>
-      <c r="J4" s="40">
-        <v>26863</v>
-      </c>
-      <c r="K4" s="40">
-        <v>12401</v>
+        <v>2007</v>
+      </c>
+      <c r="B4" s="38">
+        <v>30523</v>
+      </c>
+      <c r="C4" s="38">
+        <v>5205</v>
+      </c>
+      <c r="D4" s="38">
+        <v>37240</v>
+      </c>
+      <c r="E4" s="38">
+        <v>14218</v>
+      </c>
+      <c r="F4" s="38">
+        <v>5511</v>
+      </c>
+      <c r="G4" s="38">
+        <v>2460</v>
+      </c>
+      <c r="H4" s="38">
+        <v>21900</v>
+      </c>
+      <c r="I4" s="38">
+        <v>7424</v>
+      </c>
+      <c r="J4" s="38">
+        <v>27961</v>
+      </c>
+      <c r="K4" s="38">
+        <v>11810</v>
       </c>
     </row>
     <row r="5" spans="1:11">
       <c r="A5">
-        <v>2009</v>
-      </c>
-      <c r="B5" s="40">
-        <v>31325</v>
-      </c>
-      <c r="C5" s="40">
-        <v>3936</v>
-      </c>
-      <c r="D5" s="40">
-        <v>35361</v>
-      </c>
-      <c r="E5" s="40">
-        <v>14227</v>
-      </c>
-      <c r="F5" s="40">
-        <v>4880</v>
-      </c>
-      <c r="G5" s="40">
-        <v>2122</v>
-      </c>
-      <c r="H5" s="40">
-        <v>21031</v>
-      </c>
-      <c r="I5" s="40">
-        <v>6353</v>
-      </c>
-      <c r="J5" s="40">
-        <v>28460</v>
-      </c>
-      <c r="K5" s="40">
-        <v>14087</v>
+        <v>2008</v>
+      </c>
+      <c r="B5" s="38">
+        <v>29229</v>
+      </c>
+      <c r="C5" s="38">
+        <v>4647</v>
+      </c>
+      <c r="D5" s="38">
+        <v>36086</v>
+      </c>
+      <c r="E5" s="38">
+        <v>12552</v>
+      </c>
+      <c r="F5" s="38">
+        <v>4346</v>
+      </c>
+      <c r="G5" s="38">
+        <v>1839</v>
+      </c>
+      <c r="H5" s="38">
+        <v>19555</v>
+      </c>
+      <c r="I5" s="38">
+        <v>8296</v>
+      </c>
+      <c r="J5" s="38">
+        <v>26863</v>
+      </c>
+      <c r="K5" s="38">
+        <v>12401</v>
       </c>
     </row>
     <row r="6" spans="1:11">
       <c r="A6">
-        <v>2010</v>
-      </c>
-      <c r="B6" s="40">
-        <v>31847</v>
-      </c>
-      <c r="C6" s="40">
-        <v>3884</v>
-      </c>
-      <c r="D6" s="40">
-        <v>35534</v>
-      </c>
-      <c r="E6" s="40">
-        <v>14699</v>
-      </c>
-      <c r="F6" s="40">
-        <v>4587</v>
-      </c>
-      <c r="G6" s="40">
-        <v>1942</v>
-      </c>
-      <c r="H6" s="40">
-        <v>19886</v>
-      </c>
-      <c r="I6" s="40">
-        <v>7392</v>
-      </c>
-      <c r="J6" s="40">
-        <v>28411</v>
-      </c>
-      <c r="K6" s="40">
-        <v>11702</v>
+        <v>2009</v>
+      </c>
+      <c r="B6" s="38">
+        <v>31325</v>
+      </c>
+      <c r="C6" s="38">
+        <v>3936</v>
+      </c>
+      <c r="D6" s="38">
+        <v>35361</v>
+      </c>
+      <c r="E6" s="38">
+        <v>14227</v>
+      </c>
+      <c r="F6" s="38">
+        <v>4880</v>
+      </c>
+      <c r="G6" s="38">
+        <v>2122</v>
+      </c>
+      <c r="H6" s="38">
+        <v>21031</v>
+      </c>
+      <c r="I6" s="38">
+        <v>6353</v>
+      </c>
+      <c r="J6" s="38">
+        <v>28460</v>
+      </c>
+      <c r="K6" s="38">
+        <v>14087</v>
       </c>
     </row>
     <row r="7" spans="1:11">
       <c r="A7">
-        <v>2011</v>
-      </c>
-      <c r="B7" s="40">
-        <v>39975</v>
-      </c>
-      <c r="C7" s="40">
-        <v>5466</v>
-      </c>
-      <c r="D7" s="40">
-        <v>40087</v>
-      </c>
-      <c r="E7" s="40">
-        <v>15361</v>
-      </c>
-      <c r="F7" s="40">
-        <v>5118</v>
-      </c>
-      <c r="G7" s="40">
-        <v>1965</v>
-      </c>
-      <c r="H7" s="40">
-        <v>25238</v>
-      </c>
-      <c r="I7" s="40">
-        <v>8200</v>
-      </c>
-      <c r="J7" s="40">
-        <v>32268</v>
-      </c>
-      <c r="K7" s="40">
-        <v>18411</v>
+        <v>2010</v>
+      </c>
+      <c r="B7" s="38">
+        <v>31847</v>
+      </c>
+      <c r="C7" s="38">
+        <v>3884</v>
+      </c>
+      <c r="D7" s="38">
+        <v>35534</v>
+      </c>
+      <c r="E7" s="38">
+        <v>14699</v>
+      </c>
+      <c r="F7" s="38">
+        <v>4587</v>
+      </c>
+      <c r="G7" s="38">
+        <v>1942</v>
+      </c>
+      <c r="H7" s="38">
+        <v>19886</v>
+      </c>
+      <c r="I7" s="38">
+        <v>7392</v>
+      </c>
+      <c r="J7" s="38">
+        <v>28411</v>
+      </c>
+      <c r="K7" s="38">
+        <v>11702</v>
       </c>
     </row>
     <row r="8" spans="1:11">
       <c r="A8">
-        <v>2012</v>
-      </c>
-      <c r="B8" s="40">
-        <v>44691</v>
-      </c>
-      <c r="C8" s="40">
-        <v>4661</v>
-      </c>
-      <c r="D8" s="40">
-        <v>43815</v>
-      </c>
-      <c r="E8" s="40">
-        <v>16158</v>
-      </c>
-      <c r="F8" s="40">
-        <v>6727</v>
-      </c>
-      <c r="G8" s="40">
-        <v>2097</v>
-      </c>
-      <c r="H8" s="40">
-        <v>23709</v>
-      </c>
-      <c r="I8" s="40">
-        <v>8745</v>
-      </c>
-      <c r="J8" s="40">
-        <v>33509</v>
-      </c>
-      <c r="K8" s="40">
-        <v>13815</v>
+        <v>2011</v>
+      </c>
+      <c r="B8" s="38">
+        <v>39975</v>
+      </c>
+      <c r="C8" s="38">
+        <v>5466</v>
+      </c>
+      <c r="D8" s="38">
+        <v>40087</v>
+      </c>
+      <c r="E8" s="38">
+        <v>15361</v>
+      </c>
+      <c r="F8" s="38">
+        <v>5118</v>
+      </c>
+      <c r="G8" s="38">
+        <v>1965</v>
+      </c>
+      <c r="H8" s="38">
+        <v>25238</v>
+      </c>
+      <c r="I8" s="38">
+        <v>8200</v>
+      </c>
+      <c r="J8" s="38">
+        <v>32268</v>
+      </c>
+      <c r="K8" s="38">
+        <v>18411</v>
       </c>
     </row>
     <row r="9" spans="1:11">
       <c r="A9">
-        <v>2013</v>
-      </c>
-      <c r="B9" s="40">
-        <v>49759</v>
-      </c>
-      <c r="C9" s="40">
-        <v>4243</v>
-      </c>
-      <c r="D9" s="40">
-        <v>43122</v>
-      </c>
-      <c r="E9" s="40">
-        <v>17791</v>
-      </c>
-      <c r="F9" s="40">
-        <v>6687</v>
-      </c>
-      <c r="G9" s="40">
-        <v>2018</v>
-      </c>
-      <c r="H9" s="40">
-        <v>24004</v>
-      </c>
-      <c r="I9" s="40">
-        <v>9188</v>
-      </c>
-      <c r="J9" s="40">
-        <v>34214</v>
-      </c>
-      <c r="K9" s="40">
-        <v>13725</v>
+        <v>2012</v>
+      </c>
+      <c r="B9" s="38">
+        <v>44691</v>
+      </c>
+      <c r="C9" s="38">
+        <v>4661</v>
+      </c>
+      <c r="D9" s="38">
+        <v>43815</v>
+      </c>
+      <c r="E9" s="38">
+        <v>16158</v>
+      </c>
+      <c r="F9" s="38">
+        <v>6727</v>
+      </c>
+      <c r="G9" s="38">
+        <v>2097</v>
+      </c>
+      <c r="H9" s="38">
+        <v>23709</v>
+      </c>
+      <c r="I9" s="38">
+        <v>8745</v>
+      </c>
+      <c r="J9" s="38">
+        <v>33509</v>
+      </c>
+      <c r="K9" s="38">
+        <v>13815</v>
       </c>
     </row>
     <row r="10" spans="1:11">
       <c r="A10">
-        <v>2014</v>
-      </c>
-      <c r="B10" s="40">
-        <v>54655</v>
-      </c>
-      <c r="C10" s="40">
-        <v>4959</v>
-      </c>
-      <c r="D10" s="40">
-        <v>46897</v>
-      </c>
-      <c r="E10" s="40">
-        <v>18402</v>
-      </c>
-      <c r="F10" s="40">
-        <v>7539</v>
-      </c>
-      <c r="G10" s="40">
-        <v>1771</v>
-      </c>
-      <c r="H10" s="40">
-        <v>26709</v>
-      </c>
-      <c r="I10" s="40">
-        <v>7925</v>
-      </c>
-      <c r="J10" s="40">
-        <v>34864</v>
-      </c>
-      <c r="K10" s="40">
-        <v>15287</v>
+        <v>2013</v>
+      </c>
+      <c r="B10" s="38">
+        <v>49759</v>
+      </c>
+      <c r="C10" s="38">
+        <v>4243</v>
+      </c>
+      <c r="D10" s="38">
+        <v>43122</v>
+      </c>
+      <c r="E10" s="38">
+        <v>17791</v>
+      </c>
+      <c r="F10" s="38">
+        <v>6687</v>
+      </c>
+      <c r="G10" s="38">
+        <v>2018</v>
+      </c>
+      <c r="H10" s="38">
+        <v>24004</v>
+      </c>
+      <c r="I10" s="38">
+        <v>9188</v>
+      </c>
+      <c r="J10" s="38">
+        <v>34214</v>
+      </c>
+      <c r="K10" s="38">
+        <v>13725</v>
       </c>
     </row>
     <row r="11" spans="1:11">
       <c r="A11">
-        <v>2015</v>
-      </c>
-      <c r="B11" s="40">
-        <v>57555</v>
-      </c>
-      <c r="C11" s="40">
-        <v>5724</v>
-      </c>
-      <c r="D11" s="40">
-        <v>46934</v>
-      </c>
-      <c r="E11" s="40">
-        <v>19414</v>
-      </c>
-      <c r="F11" s="40">
-        <v>8348</v>
-      </c>
-      <c r="G11" s="40">
-        <v>2489</v>
-      </c>
-      <c r="H11" s="40">
-        <v>27304</v>
-      </c>
-      <c r="I11" s="40">
-        <v>8636</v>
-      </c>
-      <c r="J11" s="40">
-        <v>36600</v>
-      </c>
-      <c r="K11" s="40">
-        <v>16844</v>
+        <v>2014</v>
+      </c>
+      <c r="B11" s="38">
+        <v>54655</v>
+      </c>
+      <c r="C11" s="38">
+        <v>4959</v>
+      </c>
+      <c r="D11" s="38">
+        <v>46897</v>
+      </c>
+      <c r="E11" s="38">
+        <v>18402</v>
+      </c>
+      <c r="F11" s="38">
+        <v>7539</v>
+      </c>
+      <c r="G11" s="38">
+        <v>1771</v>
+      </c>
+      <c r="H11" s="38">
+        <v>26709</v>
+      </c>
+      <c r="I11" s="38">
+        <v>7925</v>
+      </c>
+      <c r="J11" s="38">
+        <v>34864</v>
+      </c>
+      <c r="K11" s="38">
+        <v>15287</v>
       </c>
     </row>
     <row r="12" spans="1:11">
       <c r="A12">
+        <v>2015</v>
+      </c>
+      <c r="B12" s="38">
+        <v>57555</v>
+      </c>
+      <c r="C12" s="38">
+        <v>5724</v>
+      </c>
+      <c r="D12" s="38">
+        <v>46934</v>
+      </c>
+      <c r="E12" s="38">
+        <v>19414</v>
+      </c>
+      <c r="F12" s="38">
+        <v>8348</v>
+      </c>
+      <c r="G12" s="38">
+        <v>2489</v>
+      </c>
+      <c r="H12" s="38">
+        <v>27304</v>
+      </c>
+      <c r="I12" s="38">
+        <v>8636</v>
+      </c>
+      <c r="J12" s="38">
+        <v>36600</v>
+      </c>
+      <c r="K12" s="38">
+        <v>16844</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="A13">
         <v>2016</v>
       </c>
-      <c r="B12" s="40">
+      <c r="B13" s="38">
         <v>54912.07782364275</v>
       </c>
-      <c r="C12" s="40">
+      <c r="C13" s="38">
         <v>5474.3039637032498</v>
       </c>
-      <c r="D12" s="40">
+      <c r="D13" s="38">
         <v>41841.089087626504</v>
       </c>
-      <c r="E12" s="40">
+      <c r="E13" s="38">
         <v>17151.31739808225</v>
       </c>
-      <c r="F12" s="40">
+      <c r="F13" s="38">
         <v>8052.6207632692494</v>
       </c>
-      <c r="G12" s="40">
+      <c r="G13" s="38">
         <v>1241.0707843324999</v>
       </c>
-      <c r="H12" s="40">
+      <c r="H13" s="38">
         <v>22279.391634980751</v>
       </c>
-      <c r="I12" s="40">
+      <c r="I13" s="38">
         <v>7790.2889690997499</v>
       </c>
-      <c r="J12" s="40">
+      <c r="J13" s="38">
         <v>33009.837060352249</v>
       </c>
-      <c r="K12" s="40">
+      <c r="K13" s="38">
         <v>14558.365041791751</v>
       </c>
     </row>
